--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/26/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/26/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8738738738738738</v>
+        <v>0.9803980398039804</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1825.825825825826</v>
+        <v>815.4215421542154</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05775775775775776</v>
+        <v>0.06432643264326433</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7557557557557557</v>
+        <v>0.2447244724472447</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>750.7507507507509</v>
+        <v>1487.518751875187</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.09809809809811</v>
+        <v>761.1161116111612</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.1061061061061</v>
+        <v>326.4068406840684</v>
       </c>
     </row>
   </sheetData>
